--- a/2/setosa_sepal_width_x.xlsx
+++ b/2/setosa_sepal_width_x.xlsx
@@ -366,152 +366,152 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>3.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/2/setosa_sepal_width_x.xlsx
+++ b/2/setosa_sepal_width_x.xlsx
@@ -366,22 +366,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="6">
@@ -391,72 +391,72 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="21">
@@ -466,37 +466,37 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="29">
@@ -506,12 +506,12 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
